--- a/bin/config/xlsx/MessageLimiter.xlsx
+++ b/bin/config/xlsx/MessageLimiter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13170" windowHeight="5880"/>
+    <workbookView windowWidth="27040" windowHeight="18320"/>
   </bookViews>
   <sheets>
     <sheet name="MessageLimiter" sheetId="2" r:id="rId1"/>
@@ -725,6 +725,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -733,7 +740,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -983,13 +990,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="R22" sqref="R21:R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1156,6 +1163,20 @@
         <v>1</v>
       </c>
       <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>68</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>1</v>
       </c>
     </row>

--- a/bin/config/xlsx/MessageLimiter.xlsx
+++ b/bin/config/xlsx/MessageLimiter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27040" windowHeight="18320"/>
+    <workbookView windowWidth="27040" windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="MessageLimiter" sheetId="2" r:id="rId1"/>
@@ -990,10 +990,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R21:R22"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1042,141 +1042,15 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>68</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
         <v>1</v>
       </c>
     </row>
